--- a/biology/Microbiologie/Actinobacillus_lignieresii/Actinobacillus_lignieresii.xlsx
+++ b/biology/Microbiologie/Actinobacillus_lignieresii/Actinobacillus_lignieresii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actinobacillus lignieresii est une espèce de bactéries de la famille des Pasteurellaceae et du genre Actinobacillus, dont elle est l'espèce type. C'est l'agent causal d'une actinobacillose linguale, familièrement nommée langue de bois, chez les bovins et plus rarement les ovins[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actinobacillus lignieresii est une espèce de bactéries de la famille des Pasteurellaceae et du genre Actinobacillus, dont elle est l'espèce type. C'est l'agent causal d'une actinobacillose linguale, familièrement nommée langue de bois, chez les bovins et plus rarement les ovins.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite pour la première fois en 1910 par le bactériologiste français Émile Brumpt, qui la classe dans le nouveau genre Actinobacillus, sous le nom binominal Actinobacillus lignieresii[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce est décrite pour la première fois en 1910 par le bactériologiste français Émile Brumpt, qui la classe dans le nouveau genre Actinobacillus, sous le nom binominal Actinobacillus lignieresii.
 Actinobacillus lignieresii a pour synonymes :
-Actinobacillus lignieresi Brumpt, 1910[3]
-Actinobacillus pleuropneumoniae[4]
-Bacterium purifaciens Christiansen, 1917[3]
-Haemophilus pleuropneumoniae Shope, 1964[4]</t>
+Actinobacillus lignieresi Brumpt, 1910
+Actinobacillus pleuropneumoniae
+Bacterium purifaciens Christiansen, 1917
+Haemophilus pleuropneumoniae Shope, 1964</t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique lignieresii est un hommage à Joseph Léon Lignières, l'un des bactériologistes qui a été le premier à isoler cet organisme[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique lignieresii est un hommage à Joseph Léon Lignières, l'un des bactériologistes qui a été le premier à isoler cet organisme.
 </t>
         </is>
       </c>
